--- a/biology/Zoologie/Aquarius_najas/Aquarius_najas.xlsx
+++ b/biology/Zoologie/Aquarius_najas/Aquarius_najas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aquarius najas, l’Araignée d'eau, est une espèce européenne de la famille des Gerridae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a généralement besoin d'eaux mobiles, vivant dans des endroits comme les bords pierreux des rivières[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a généralement besoin d'eaux mobiles, vivant dans des endroits comme les bords pierreux des rivières.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A. najas fait partie des plus grandes espèces d'araignées d'eau, typique du genre Aquarius (y compris une autre espèce européenne, Aquarius paludum en moyenne légèrement plus petite). Les femelles adultes d’A. najas mesurent en moyenne 16,5 mm de long, les mâles sont environ 30 % plus petits[2]. En Europe du Nord, cette espèce est aptère, mais en Europe centrale et méridionale, elle a souvent des ailes[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. najas fait partie des plus grandes espèces d'araignées d'eau, typique du genre Aquarius (y compris une autre espèce européenne, Aquarius paludum en moyenne légèrement plus petite). Les femelles adultes d’A. najas mesurent en moyenne 16,5 mm de long, les mâles sont environ 30 % plus petits. En Europe du Nord, cette espèce est aptère, mais en Europe centrale et méridionale, elle a souvent des ailes.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aquarius najas passe l'hiver à l'âge adulte. Au printemps, ils forment des paires et, avant de s'accoupler, se rangent ensemble en surface pendant la journée. La nuit, ils se séparent et les femelles pondent leurs œufs sous l'eau en plaques serrées. Normalement, les œufs sont pondus à la surface de pierres plates[1]. Les mâles peuvent garder les femelles après l'accouplement pour empêcher les autres mâles de concourir. Il a été affirmé que les mâles peuvent rester jumelés avec des femelles pendant plusieurs semaines[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aquarius najas passe l'hiver à l'âge adulte. Au printemps, ils forment des paires et, avant de s'accoupler, se rangent ensemble en surface pendant la journée. La nuit, ils se séparent et les femelles pondent leurs œufs sous l'eau en plaques serrées. Normalement, les œufs sont pondus à la surface de pierres plates. Les mâles peuvent garder les femelles après l'accouplement pour empêcher les autres mâles de concourir. Il a été affirmé que les mâles peuvent rester jumelés avec des femelles pendant plusieurs semaines.
 </t>
         </is>
       </c>
@@ -604,12 +622,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Aquarius najas (de Geer, 1773)[5].
-L'espèce a été initialement classée dans le genre Cimex sous le protonyme Cimex najas De Geer, 1773[5].
-Ce taxon était anciennement connu sous le nom de Gerris najas, mais le sous-genre Aquarius a été élevé au rang générique en 1990 sur la base d'une analyse phylogénétique[6],[7].
-Aquarius najas a pour synonymes[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Aquarius najas (de Geer, 1773).
+L'espèce a été initialement classée dans le genre Cimex sous le protonyme Cimex najas De Geer, 1773.
+Ce taxon était anciennement connu sous le nom de Gerris najas, mais le sous-genre Aquarius a été élevé au rang générique en 1990 sur la base d'une analyse phylogénétique,.
+Aquarius najas a pour synonymes :
 Cimex najas De Geer, 1773
 Gerris aptera Schummel, 1832
 Gerris najas (De Geer, 1773)</t>
